--- a/data-raw/kiesselbach.oats.xlsx
+++ b/data-raw/kiesselbach.oats.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E3C994-ACBB-4BBB-9732-10037B4F88AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="660" windowWidth="13632" windowHeight="10116"/>
+    <workbookView xWindow="4560" yWindow="3520" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,14 +64,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -103,7 +112,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -175,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -348,16 +357,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>755</v>
       </c>
@@ -368,7 +377,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>848</v>
       </c>
@@ -379,7 +388,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>863</v>
       </c>
@@ -390,7 +399,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>844</v>
       </c>
@@ -401,7 +410,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>848</v>
       </c>
@@ -412,7 +421,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>853</v>
       </c>
@@ -423,7 +432,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>816</v>
       </c>
@@ -434,7 +443,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>848</v>
       </c>
@@ -445,7 +454,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>802</v>
       </c>
@@ -456,7 +465,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>797</v>
       </c>
@@ -467,7 +476,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>792</v>
       </c>
@@ -478,7 +487,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>830</v>
       </c>
@@ -489,7 +498,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>802</v>
       </c>
@@ -500,7 +509,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>863</v>
       </c>
@@ -511,7 +520,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>811</v>
       </c>
@@ -522,7 +531,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>778</v>
       </c>
@@ -533,7 +542,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>755</v>
       </c>
@@ -544,7 +553,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>684</v>
       </c>
@@ -555,7 +564,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>788</v>
       </c>
@@ -566,7 +575,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>806</v>
       </c>
@@ -577,7 +586,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>825</v>
       </c>
@@ -588,7 +597,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>853</v>
       </c>
@@ -599,7 +608,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>788</v>
       </c>
@@ -610,7 +619,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>802</v>
       </c>
@@ -621,7 +630,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>788</v>
       </c>
@@ -632,7 +641,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>858</v>
       </c>
@@ -643,7 +652,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>647</v>
       </c>
@@ -654,7 +663,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>881</v>
       </c>
@@ -665,7 +674,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>769</v>
       </c>
@@ -676,7 +685,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>834</v>
       </c>
@@ -687,7 +696,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>806</v>
       </c>
@@ -698,7 +707,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>797</v>
       </c>
@@ -709,7 +718,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>834</v>
       </c>
@@ -720,7 +729,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>811</v>
       </c>
@@ -731,7 +740,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>825</v>
       </c>
@@ -742,7 +751,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>802</v>
       </c>
@@ -753,7 +762,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>797</v>
       </c>
@@ -764,7 +773,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>816</v>
       </c>
@@ -775,7 +784,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>834</v>
       </c>
@@ -786,7 +795,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>788</v>
       </c>
@@ -797,7 +806,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>867</v>
       </c>
@@ -808,7 +817,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>825</v>
       </c>
@@ -819,7 +828,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>858</v>
       </c>
@@ -830,7 +839,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>788</v>
       </c>
@@ -841,7 +850,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>797</v>
       </c>
@@ -852,7 +861,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>694</v>
       </c>
@@ -863,7 +872,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>788</v>
       </c>
@@ -874,7 +883,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>830</v>
       </c>
@@ -885,7 +894,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>797</v>
       </c>
@@ -896,7 +905,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>825</v>
       </c>
@@ -907,7 +916,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>853</v>
       </c>
@@ -918,7 +927,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>839</v>
       </c>
@@ -929,7 +938,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>834</v>
       </c>
@@ -940,7 +949,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>816</v>
       </c>
@@ -951,7 +960,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>750</v>
       </c>
@@ -962,7 +971,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>750</v>
       </c>
@@ -973,7 +982,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>834</v>
       </c>
@@ -984,7 +993,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>853</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>764</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>694</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>816</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>783</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>797</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>806</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>792</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>769</v>
       </c>
@@ -1083,7 +1092,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>769</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>830</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>736</v>
       </c>
@@ -1122,24 +1131,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
